--- a/data/panelapp/uk/Groopman et al 2019 - Genes with diagnostic variants.xlsx
+++ b/data/panelapp/uk/Groopman et al 2019 - Genes with diagnostic variants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389506</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389519</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389523</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389526</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389530</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389533</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389536</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389539</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389542</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389546</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389549</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389552</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389554</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389557</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389560</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389563</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389567</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389570</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389573</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389576</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389579</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389582</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389585</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389588</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389591</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389594</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389598</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389601</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389604</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389607</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389610</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389612</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389616</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389619</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389622</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389625</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389628</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389630</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389633</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389636</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389640</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389643</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389646</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389649</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389652</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389655</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389658</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389661</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389664</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389667</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389670</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389673</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389676</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389679</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389682</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389685</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389688</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389691</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389694</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389697</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389700</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389703</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389706</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389709</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389714</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Groopman et al 2019 - Genes with diagnostic variants</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:40:01.389717</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Groopman et al 2019 - Genes with diagnostic variants.xlsx
+++ b/data/panelapp/uk/Groopman et al 2019 - Genes with diagnostic variants.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389506</t>
+          <t>2021-10-05 14:20:34.503774</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389519</t>
+          <t>2021-10-05 14:20:34.503782</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389523</t>
+          <t>2021-10-05 14:20:34.503785</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389526</t>
+          <t>2021-10-05 14:20:34.503788</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389530</t>
+          <t>2021-10-05 14:20:34.503791</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389533</t>
+          <t>2021-10-05 14:20:34.503793</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389536</t>
+          <t>2021-10-05 14:20:34.503796</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389539</t>
+          <t>2021-10-05 14:20:34.503798</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389542</t>
+          <t>2021-10-05 14:20:34.503801</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389546</t>
+          <t>2021-10-05 14:20:34.503804</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389549</t>
+          <t>2021-10-05 14:20:34.503807</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389552</t>
+          <t>2021-10-05 14:20:34.503809</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389554</t>
+          <t>2021-10-05 14:20:34.503812</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389557</t>
+          <t>2021-10-05 14:20:34.503814</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389560</t>
+          <t>2021-10-05 14:20:34.503817</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389563</t>
+          <t>2021-10-05 14:20:34.503819</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389567</t>
+          <t>2021-10-05 14:20:34.503822</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389570</t>
+          <t>2021-10-05 14:20:34.503825</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389573</t>
+          <t>2021-10-05 14:20:34.503827</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389576</t>
+          <t>2021-10-05 14:20:34.503830</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389579</t>
+          <t>2021-10-05 14:20:34.503832</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389582</t>
+          <t>2021-10-05 14:20:34.503835</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389585</t>
+          <t>2021-10-05 14:20:34.503838</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389588</t>
+          <t>2021-10-05 14:20:34.503840</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389591</t>
+          <t>2021-10-05 14:20:34.503843</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389594</t>
+          <t>2021-10-05 14:20:34.503846</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389598</t>
+          <t>2021-10-05 14:20:34.503848</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389601</t>
+          <t>2021-10-05 14:20:34.503851</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389604</t>
+          <t>2021-10-05 14:20:34.503853</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389607</t>
+          <t>2021-10-05 14:20:34.503856</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389610</t>
+          <t>2021-10-05 14:20:34.503858</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389612</t>
+          <t>2021-10-05 14:20:34.503861</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389616</t>
+          <t>2021-10-05 14:20:34.503864</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389619</t>
+          <t>2021-10-05 14:20:34.503866</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389622</t>
+          <t>2021-10-05 14:20:34.503869</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389625</t>
+          <t>2021-10-05 14:20:34.503871</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389628</t>
+          <t>2021-10-05 14:20:34.503874</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389630</t>
+          <t>2021-10-05 14:20:34.503876</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389633</t>
+          <t>2021-10-05 14:20:34.503879</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389636</t>
+          <t>2021-10-05 14:20:34.503882</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389640</t>
+          <t>2021-10-05 14:20:34.503885</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389643</t>
+          <t>2021-10-05 14:20:34.503887</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389646</t>
+          <t>2021-10-05 14:20:34.503890</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389649</t>
+          <t>2021-10-05 14:20:34.503892</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389652</t>
+          <t>2021-10-05 14:20:34.503895</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389655</t>
+          <t>2021-10-05 14:20:34.503897</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389658</t>
+          <t>2021-10-05 14:20:34.503900</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389661</t>
+          <t>2021-10-05 14:20:34.503902</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389664</t>
+          <t>2021-10-05 14:20:34.503905</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389667</t>
+          <t>2021-10-05 14:20:34.503907</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389670</t>
+          <t>2021-10-05 14:20:34.503910</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389673</t>
+          <t>2021-10-05 14:20:34.503912</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389676</t>
+          <t>2021-10-05 14:20:34.503915</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389679</t>
+          <t>2021-10-05 14:20:34.503918</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389682</t>
+          <t>2021-10-05 14:20:34.503920</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389685</t>
+          <t>2021-10-05 14:20:34.503923</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389688</t>
+          <t>2021-10-05 14:20:34.503926</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389691</t>
+          <t>2021-10-05 14:20:34.503928</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389694</t>
+          <t>2021-10-05 14:20:34.503931</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389697</t>
+          <t>2021-10-05 14:20:34.503933</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389700</t>
+          <t>2021-10-05 14:20:34.503936</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389703</t>
+          <t>2021-10-05 14:20:34.503938</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389706</t>
+          <t>2021-10-05 14:20:34.503941</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389709</t>
+          <t>2021-10-05 14:20:34.503943</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389714</t>
+          <t>2021-10-05 14:20:34.503947</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,91 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:01.389717</t>
+          <t>2021-10-05 14:20:34.503950</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Groopman et al 2019 - Genes with diagnostic variants</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>720</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2019-07-09T15:48:14.145108Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:20:34.500243</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/720/?format=json</t>
         </is>
       </c>
     </row>
